--- a/trades.xlsx
+++ b/trades.xlsx
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -449,34 +449,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9717663</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>547</v>
+        <v>282</v>
       </c>
       <c r="D2">
-        <v>547</v>
+        <v>314</v>
       </c>
       <c r="E2">
-        <v>0.01029054</v>
+        <v>49757.15568</v>
       </c>
       <c r="F2">
-        <v>0.01027</v>
+        <v>48168.08145395408</v>
       </c>
       <c r="G2">
-        <v>-199.6007980199946</v>
+        <v>-3178.148452091831</v>
       </c>
       <c r="H2">
-        <v>-0.001996007984031878</v>
+        <v>-0.03193659694427931</v>
       </c>
       <c r="I2" s="2">
-        <v>45079.5</v>
+        <v>44244.16666666666</v>
       </c>
       <c r="J2" s="2">
-        <v>45079.5</v>
+        <v>44249.5</v>
       </c>
       <c r="K2" s="3">
-        <v>0</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -484,34 +484,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11590988</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>673</v>
+        <v>370</v>
       </c>
       <c r="D3">
-        <v>673</v>
+        <v>372</v>
       </c>
       <c r="E3">
-        <v>0.00862722</v>
+        <v>50958.88434</v>
       </c>
       <c r="F3">
-        <v>0.00861</v>
+        <v>49262.63144690699</v>
       </c>
       <c r="G3">
-        <v>-199.596813360001</v>
+        <v>-1696.252893093006</v>
       </c>
       <c r="H3">
-        <v>-0.001996007984031989</v>
+        <v>-0.03328669603077505</v>
       </c>
       <c r="I3" s="2">
-        <v>45100.5</v>
+        <v>44258.83333333334</v>
       </c>
       <c r="J3" s="2">
-        <v>45100.5</v>
+        <v>44259.16666666666</v>
       </c>
       <c r="K3" s="3">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -519,34 +519,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13341766</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>807</v>
+        <v>391</v>
       </c>
       <c r="D4">
-        <v>807</v>
+        <v>487</v>
       </c>
       <c r="E4">
-        <v>0.007494959999999999</v>
+        <v>50141.92368</v>
       </c>
       <c r="F4">
-        <v>0.00748</v>
+        <v>54166.12</v>
       </c>
       <c r="G4">
-        <v>-199.592819359995</v>
+        <v>4024.196320000003</v>
       </c>
       <c r="H4">
-        <v>-0.001996007984031878</v>
+        <v>0.08025612151783323</v>
       </c>
       <c r="I4" s="2">
-        <v>45122.83333333334</v>
+        <v>44262.33333333334</v>
       </c>
       <c r="J4" s="2">
-        <v>45122.83333333334</v>
+        <v>44278.33333333334</v>
       </c>
       <c r="K4" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -554,34 +554,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14850360</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>967</v>
+        <v>524</v>
       </c>
       <c r="D5">
-        <v>967</v>
+        <v>577</v>
       </c>
       <c r="E5">
-        <v>0.00673344</v>
+        <v>57969.84828</v>
       </c>
       <c r="F5">
-        <v>0.00671</v>
+        <v>56334.24883381041</v>
       </c>
       <c r="G5">
-        <v>-348.0924384000065</v>
+        <v>-1635.59944618959</v>
       </c>
       <c r="H5">
-        <v>-0.003481132972151024</v>
+        <v>-0.02821465804584278</v>
       </c>
       <c r="I5" s="2">
-        <v>45149.5</v>
+        <v>44284.5</v>
       </c>
       <c r="J5" s="2">
-        <v>45149.5</v>
+        <v>44293.33333333334</v>
       </c>
       <c r="K5" s="3">
-        <v>0</v>
+        <v>8.833333333333334</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -589,34 +589,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15051425</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1056</v>
+        <v>590</v>
       </c>
       <c r="D6">
-        <v>1056</v>
+        <v>641</v>
       </c>
       <c r="E6">
-        <v>0.00664326</v>
+        <v>58644.2544</v>
       </c>
       <c r="F6">
-        <v>0.00663</v>
+        <v>57116.32145635471</v>
       </c>
       <c r="G6">
-        <v>-199.5818955000027</v>
+        <v>-1527.93294364529</v>
       </c>
       <c r="H6">
-        <v>-0.001996007984031989</v>
+        <v>-0.02605426497920127</v>
       </c>
       <c r="I6" s="2">
-        <v>45164.33333333334</v>
+        <v>44295.5</v>
       </c>
       <c r="J6" s="2">
-        <v>45164.33333333334</v>
+        <v>44304</v>
       </c>
       <c r="K6" s="3">
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -624,34 +624,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12051806</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1179</v>
+        <v>717</v>
       </c>
       <c r="D7">
-        <v>1179</v>
+        <v>737</v>
       </c>
       <c r="E7">
-        <v>0.00829656</v>
+        <v>57294.4101</v>
       </c>
       <c r="F7">
-        <v>0.00827</v>
+        <v>55745.97667351087</v>
       </c>
       <c r="G7">
-        <v>-320.0959673600015</v>
+        <v>-1548.433426489129</v>
       </c>
       <c r="H7">
-        <v>-0.003201326814969097</v>
+        <v>-0.02702590748009337</v>
       </c>
       <c r="I7" s="2">
-        <v>45184.83333333334</v>
+        <v>44316.66666666666</v>
       </c>
       <c r="J7" s="2">
-        <v>45184.83333333334</v>
+        <v>44320</v>
       </c>
       <c r="K7" s="3">
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -659,34 +659,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11522605</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>1451</v>
+        <v>969</v>
       </c>
       <c r="D8">
-        <v>1452</v>
+        <v>971</v>
       </c>
       <c r="E8">
-        <v>0.008677319999999999</v>
+        <v>36892.05684</v>
       </c>
       <c r="F8">
-        <v>0.00865</v>
+        <v>35288.17858412792</v>
       </c>
       <c r="G8">
-        <v>-314.7975685999894</v>
+        <v>-3207.756511744155</v>
       </c>
       <c r="H8">
-        <v>-0.003148437536013349</v>
+        <v>-0.04347489387290226</v>
       </c>
       <c r="I8" s="2">
-        <v>45230.16666666666</v>
+        <v>44358.66666666666</v>
       </c>
       <c r="J8" s="2">
-        <v>45230.33333333334</v>
+        <v>44359</v>
       </c>
       <c r="K8" s="3">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -694,34 +694,1644 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11173865</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1462</v>
+        <v>983</v>
       </c>
       <c r="D9">
-        <v>1462</v>
+        <v>1005</v>
       </c>
       <c r="E9">
-        <v>0.00894786</v>
+        <v>39098.60112</v>
       </c>
       <c r="F9">
-        <v>0.00893</v>
+        <v>37512.70309058356</v>
       </c>
       <c r="G9">
-        <v>-199.5652288999972</v>
+        <v>-3171.796058832871</v>
       </c>
       <c r="H9">
-        <v>-0.001996007984031878</v>
+        <v>-0.04056150307140283</v>
       </c>
       <c r="I9" s="2">
-        <v>45232</v>
+        <v>44361</v>
       </c>
       <c r="J9" s="2">
-        <v>45232</v>
+        <v>44364.66666666666</v>
       </c>
       <c r="K9" s="3">
+        <v>3.666666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1077</v>
+      </c>
+      <c r="D10">
+        <v>1080</v>
+      </c>
+      <c r="E10">
+        <v>36321.48798</v>
+      </c>
+      <c r="F10">
+        <v>34836.22201783503</v>
+      </c>
+      <c r="G10">
+        <v>-2970.531924329945</v>
+      </c>
+      <c r="H10">
+        <v>-0.04089221132633158</v>
+      </c>
+      <c r="I10" s="2">
+        <v>44376.66666666666</v>
+      </c>
+      <c r="J10" s="2">
+        <v>44377.16666666666</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1105</v>
+      </c>
+      <c r="D11">
+        <v>1109</v>
+      </c>
+      <c r="E11">
+        <v>35674.22603999999</v>
+      </c>
+      <c r="F11">
+        <v>34246.76530393495</v>
+      </c>
+      <c r="G11">
+        <v>-2854.921472130081</v>
+      </c>
+      <c r="H11">
+        <v>-0.0400137829049042</v>
+      </c>
+      <c r="I11" s="2">
+        <v>44381.33333333334</v>
+      </c>
+      <c r="J11" s="2">
+        <v>44382</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1117</v>
+      </c>
+      <c r="D12">
+        <v>1119</v>
+      </c>
+      <c r="E12">
+        <v>34944.5997</v>
+      </c>
+      <c r="F12">
+        <v>33548.60311013922</v>
+      </c>
+      <c r="G12">
+        <v>-2791.993179721554</v>
+      </c>
+      <c r="H12">
+        <v>-0.03994885051897668</v>
+      </c>
+      <c r="I12" s="2">
+        <v>44383.33333333334</v>
+      </c>
+      <c r="J12" s="2">
+        <v>44383.66666666666</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1123</v>
+      </c>
+      <c r="D13">
+        <v>1127</v>
+      </c>
+      <c r="E13">
+        <v>34779.8208</v>
+      </c>
+      <c r="F13">
+        <v>33396.06949389252</v>
+      </c>
+      <c r="G13">
+        <v>-2767.502612214972</v>
+      </c>
+      <c r="H13">
+        <v>-0.0397860389811866</v>
+      </c>
+      <c r="I13" s="2">
+        <v>44384.33333333334</v>
+      </c>
+      <c r="J13" s="2">
+        <v>44385</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1223</v>
+      </c>
+      <c r="D14">
+        <v>1457</v>
+      </c>
+      <c r="E14">
+        <v>33701.3682</v>
+      </c>
+      <c r="F14">
+        <v>47100.89</v>
+      </c>
+      <c r="G14">
+        <v>26799.0436</v>
+      </c>
+      <c r="H14">
+        <v>0.3975957806959305</v>
+      </c>
+      <c r="I14" s="2">
+        <v>44401</v>
+      </c>
+      <c r="J14" s="2">
+        <v>44440</v>
+      </c>
+      <c r="K14" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1464</v>
+      </c>
+      <c r="D15">
+        <v>1469</v>
+      </c>
+      <c r="E15">
+        <v>49656.99576</v>
+      </c>
+      <c r="F15">
+        <v>48546.52476135737</v>
+      </c>
+      <c r="G15">
+        <v>-2220.941997285263</v>
+      </c>
+      <c r="H15">
+        <v>-0.02236283088912006</v>
+      </c>
+      <c r="I15" s="2">
+        <v>44441.16666666666</v>
+      </c>
+      <c r="J15" s="2">
+        <v>44442</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1549</v>
+      </c>
+      <c r="D16">
+        <v>1550</v>
+      </c>
+      <c r="E16">
+        <v>48440.20703999999</v>
+      </c>
+      <c r="F16">
+        <v>47338.50513440546</v>
+      </c>
+      <c r="G16">
+        <v>-2203.40381118907</v>
+      </c>
+      <c r="H16">
+        <v>-0.02274354246018795</v>
+      </c>
+      <c r="I16" s="2">
+        <v>44455.33333333334</v>
+      </c>
+      <c r="J16" s="2">
+        <v>44455.5</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1641</v>
+      </c>
+      <c r="D17">
+        <v>1797</v>
+      </c>
+      <c r="E17">
+        <v>47458.41738</v>
+      </c>
+      <c r="F17">
+        <v>58819.15</v>
+      </c>
+      <c r="G17">
+        <v>22721.46524</v>
+      </c>
+      <c r="H17">
+        <v>0.2393828797331041</v>
+      </c>
+      <c r="I17" s="2">
+        <v>44470.66666666666</v>
+      </c>
+      <c r="J17" s="2">
+        <v>44496.66666666666</v>
+      </c>
+      <c r="K17" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1811</v>
+      </c>
+      <c r="D18">
+        <v>1813</v>
+      </c>
+      <c r="E18">
+        <v>62378.2074</v>
+      </c>
+      <c r="F18">
+        <v>61138.2481586435</v>
+      </c>
+      <c r="G18">
+        <v>-1239.959241356504</v>
+      </c>
+      <c r="H18">
+        <v>-0.01987808391807844</v>
+      </c>
+      <c r="I18" s="2">
+        <v>44499</v>
+      </c>
+      <c r="J18" s="2">
+        <v>44499.33333333334</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1825</v>
+      </c>
+      <c r="D19">
+        <v>1827</v>
+      </c>
+      <c r="E19">
+        <v>62300.64258</v>
+      </c>
+      <c r="F19">
+        <v>61062.66348741961</v>
+      </c>
+      <c r="G19">
+        <v>-1237.97909258039</v>
+      </c>
+      <c r="H19">
+        <v>-0.01987104853679011</v>
+      </c>
+      <c r="I19" s="2">
+        <v>44501.33333333334</v>
+      </c>
+      <c r="J19" s="2">
+        <v>44501.66666666666</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1864</v>
+      </c>
+      <c r="D20">
+        <v>1913</v>
+      </c>
+      <c r="E20">
+        <v>62390.10114</v>
+      </c>
+      <c r="F20">
+        <v>61167.55853076957</v>
+      </c>
+      <c r="G20">
+        <v>-1222.542609230426</v>
+      </c>
+      <c r="H20">
+        <v>-0.0195951374800164</v>
+      </c>
+      <c r="I20" s="2">
+        <v>44507.83333333334</v>
+      </c>
+      <c r="J20" s="2">
+        <v>44516</v>
+      </c>
+      <c r="K20" s="3">
+        <v>8.166666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2133</v>
+      </c>
+      <c r="D21">
+        <v>2169</v>
+      </c>
+      <c r="E21">
+        <v>48977.03856</v>
+      </c>
+      <c r="F21">
+        <v>47703.73029609994</v>
+      </c>
+      <c r="G21">
+        <v>-2546.616527800114</v>
+      </c>
+      <c r="H21">
+        <v>-0.02599806565152307</v>
+      </c>
+      <c r="I21" s="2">
+        <v>44552.66666666666</v>
+      </c>
+      <c r="J21" s="2">
+        <v>44558.66666666666</v>
+      </c>
+      <c r="K21" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>2378</v>
+      </c>
+      <c r="D22">
+        <v>2384</v>
+      </c>
+      <c r="E22">
+        <v>38501.90010000001</v>
+      </c>
+      <c r="F22">
+        <v>37417.47202166515</v>
+      </c>
+      <c r="G22">
+        <v>-2168.856156669717</v>
+      </c>
+      <c r="H22">
+        <v>-0.02816557301115796</v>
+      </c>
+      <c r="I22" s="2">
+        <v>44593.5</v>
+      </c>
+      <c r="J22" s="2">
+        <v>44594.5</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>2398</v>
+      </c>
+      <c r="D23">
+        <v>2479</v>
+      </c>
+      <c r="E23">
+        <v>40809.37584</v>
+      </c>
+      <c r="F23">
+        <v>40665.81</v>
+      </c>
+      <c r="G23">
+        <v>-287.1316800000059</v>
+      </c>
+      <c r="H23">
+        <v>-0.003517962160530907</v>
+      </c>
+      <c r="I23" s="2">
+        <v>44596.83333333334</v>
+      </c>
+      <c r="J23" s="2">
+        <v>44610.33333333334</v>
+      </c>
+      <c r="K23" s="3">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2543</v>
+      </c>
+      <c r="D24">
+        <v>2559</v>
+      </c>
+      <c r="E24">
+        <v>43246.32</v>
+      </c>
+      <c r="F24">
+        <v>42183.28825230478</v>
+      </c>
+      <c r="G24">
+        <v>-2126.063495390437</v>
+      </c>
+      <c r="H24">
+        <v>-0.02458086023724604</v>
+      </c>
+      <c r="I24" s="2">
+        <v>44621</v>
+      </c>
+      <c r="J24" s="2">
+        <v>44623.66666666666</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2.666666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>2596</v>
+      </c>
+      <c r="D25">
+        <v>2597</v>
+      </c>
+      <c r="E25">
+        <v>42289.0593</v>
+      </c>
+      <c r="F25">
+        <v>41229.73273087518</v>
+      </c>
+      <c r="G25">
+        <v>-2118.653138249632</v>
+      </c>
+      <c r="H25">
+        <v>-0.02504966028234201</v>
+      </c>
+      <c r="I25" s="2">
+        <v>44629.83333333334</v>
+      </c>
+      <c r="J25" s="2">
+        <v>44630</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2638</v>
+      </c>
+      <c r="D26">
+        <v>2764</v>
+      </c>
+      <c r="E26">
+        <v>40961.93034</v>
+      </c>
+      <c r="F26">
+        <v>43754.56</v>
+      </c>
+      <c r="G26">
+        <v>5585.259319999997</v>
+      </c>
+      <c r="H26">
+        <v>0.06817622208768204</v>
+      </c>
+      <c r="I26" s="2">
+        <v>44636.83333333334</v>
+      </c>
+      <c r="J26" s="2">
+        <v>44657.83333333334</v>
+      </c>
+      <c r="K26" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>2852</v>
+      </c>
+      <c r="D27">
+        <v>2853</v>
+      </c>
+      <c r="E27">
+        <v>42524.89002</v>
+      </c>
+      <c r="F27">
+        <v>41645.86578238476</v>
+      </c>
+      <c r="G27">
+        <v>-1758.048475230476</v>
+      </c>
+      <c r="H27">
+        <v>-0.02067081742484977</v>
+      </c>
+      <c r="I27" s="2">
+        <v>44672.5</v>
+      </c>
+      <c r="J27" s="2">
+        <v>44672.66666666666</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>3088</v>
+      </c>
+      <c r="D28">
+        <v>3100</v>
+      </c>
+      <c r="E28">
+        <v>30704.3862</v>
+      </c>
+      <c r="F28">
+        <v>29889.00080165369</v>
+      </c>
+      <c r="G28">
+        <v>-2446.156195038926</v>
+      </c>
+      <c r="H28">
+        <v>-0.02655599082929427</v>
+      </c>
+      <c r="I28" s="2">
+        <v>44711.83333333334</v>
+      </c>
+      <c r="J28" s="2">
+        <v>44713.83333333334</v>
+      </c>
+      <c r="K28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>3127</v>
+      </c>
+      <c r="D29">
+        <v>3131</v>
+      </c>
+      <c r="E29">
+        <v>31355.34552</v>
+      </c>
+      <c r="F29">
+        <v>30572.13501697771</v>
+      </c>
+      <c r="G29">
+        <v>-2349.631509066876</v>
+      </c>
+      <c r="H29">
+        <v>-0.02497853205038747</v>
+      </c>
+      <c r="I29" s="2">
+        <v>44718.33333333334</v>
+      </c>
+      <c r="J29" s="2">
+        <v>44719</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>3314</v>
+      </c>
+      <c r="D30">
+        <v>3341</v>
+      </c>
+      <c r="E30">
+        <v>20548.84566</v>
+      </c>
+      <c r="F30">
+        <v>19834.58397826606</v>
+      </c>
+      <c r="G30">
+        <v>-2857.046726935761</v>
+      </c>
+      <c r="H30">
+        <v>-0.03475921195536102</v>
+      </c>
+      <c r="I30" s="2">
+        <v>44749.5</v>
+      </c>
+      <c r="J30" s="2">
+        <v>44754</v>
+      </c>
+      <c r="K30" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>3364</v>
+      </c>
+      <c r="D31">
+        <v>3366</v>
+      </c>
+      <c r="E31">
+        <v>21208.1817</v>
+      </c>
+      <c r="F31">
+        <v>20525.07027888425</v>
+      </c>
+      <c r="G31">
+        <v>-2732.445684462975</v>
+      </c>
+      <c r="H31">
+        <v>-0.03220980613890834</v>
+      </c>
+      <c r="I31" s="2">
+        <v>44757.83333333334</v>
+      </c>
+      <c r="J31" s="2">
+        <v>44758.16666666666</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>3439</v>
+      </c>
+      <c r="D32">
+        <v>3563</v>
+      </c>
+      <c r="E32">
+        <v>22970.9502</v>
+      </c>
+      <c r="F32">
+        <v>23342.66</v>
+      </c>
+      <c r="G32">
+        <v>1486.839200000002</v>
+      </c>
+      <c r="H32">
+        <v>0.01618173374473653</v>
+      </c>
+      <c r="I32" s="2">
+        <v>44770.33333333334</v>
+      </c>
+      <c r="J32" s="2">
+        <v>44791</v>
+      </c>
+      <c r="K32" s="3">
+        <v>20.66666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>3700</v>
+      </c>
+      <c r="D33">
+        <v>3722</v>
+      </c>
+      <c r="E33">
+        <v>21334.20324</v>
+      </c>
+      <c r="F33">
+        <v>20827.15791369744</v>
+      </c>
+      <c r="G33">
+        <v>-2028.181305210237</v>
+      </c>
+      <c r="H33">
+        <v>-0.02376678053539338</v>
+      </c>
+      <c r="I33" s="2">
+        <v>44813.83333333334</v>
+      </c>
+      <c r="J33" s="2">
+        <v>44817.5</v>
+      </c>
+      <c r="K33" s="3">
+        <v>3.666666666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>3807</v>
+      </c>
+      <c r="D34">
+        <v>3807</v>
+      </c>
+      <c r="E34">
+        <v>19927.55556</v>
+      </c>
+      <c r="F34">
+        <v>19441.95803828233</v>
+      </c>
+      <c r="G34">
+        <v>-2427.987608588355</v>
+      </c>
+      <c r="H34">
+        <v>-0.02436814290922851</v>
+      </c>
+      <c r="I34" s="2">
+        <v>44831.66666666666</v>
+      </c>
+      <c r="J34" s="2">
+        <v>44831.66666666666</v>
+      </c>
+      <c r="K34" s="3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>3822</v>
+      </c>
+      <c r="D35">
+        <v>3835</v>
+      </c>
+      <c r="E35">
+        <v>19436.51544</v>
+      </c>
+      <c r="F35">
+        <v>19284.93</v>
+      </c>
+      <c r="G35">
+        <v>-757.9272000000128</v>
+      </c>
+      <c r="H35">
+        <v>-0.007799002885467976</v>
+      </c>
+      <c r="I35" s="2">
+        <v>44834.16666666666</v>
+      </c>
+      <c r="J35" s="2">
+        <v>44836.33333333334</v>
+      </c>
+      <c r="K35" s="3">
+        <v>2.166666666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>3846</v>
+      </c>
+      <c r="D36">
+        <v>3877</v>
+      </c>
+      <c r="E36">
+        <v>19637.46654</v>
+      </c>
+      <c r="F36">
+        <v>19407.96</v>
+      </c>
+      <c r="G36">
+        <v>-1147.532700000011</v>
+      </c>
+      <c r="H36">
+        <v>-0.01168717662904806</v>
+      </c>
+      <c r="I36" s="2">
+        <v>44838.16666666666</v>
+      </c>
+      <c r="J36" s="2">
+        <v>44843.33333333334</v>
+      </c>
+      <c r="K36" s="3">
+        <v>5.166666666666667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>3930</v>
+      </c>
+      <c r="D37">
+        <v>3933</v>
+      </c>
+      <c r="E37">
+        <v>19587.77736</v>
+      </c>
+      <c r="F37">
+        <v>19168.90411194056</v>
+      </c>
+      <c r="G37">
+        <v>-2094.366240297186</v>
+      </c>
+      <c r="H37">
+        <v>-0.02138441949594616</v>
+      </c>
+      <c r="I37" s="2">
+        <v>44852.16666666666</v>
+      </c>
+      <c r="J37" s="2">
+        <v>44852.66666666666</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>3967</v>
+      </c>
+      <c r="D38">
+        <v>4059</v>
+      </c>
+      <c r="E38">
+        <v>19361.0448</v>
+      </c>
+      <c r="F38">
+        <v>19522</v>
+      </c>
+      <c r="G38">
+        <v>804.7759999999835</v>
+      </c>
+      <c r="H38">
+        <v>0.008313353006651703</v>
+      </c>
+      <c r="I38" s="2">
+        <v>44858.33333333334</v>
+      </c>
+      <c r="J38" s="2">
+        <v>44873.66666666666</v>
+      </c>
+      <c r="K38" s="3">
+        <v>15.33333333333333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>4191</v>
+      </c>
+      <c r="D39">
+        <v>4288</v>
+      </c>
+      <c r="E39">
+        <v>16899.37128</v>
+      </c>
+      <c r="F39">
+        <v>16538.55386205123</v>
+      </c>
+      <c r="G39">
+        <v>-1804.087089743825</v>
+      </c>
+      <c r="H39">
+        <v>-0.02135093737929672</v>
+      </c>
+      <c r="I39" s="2">
+        <v>44895.66666666666</v>
+      </c>
+      <c r="J39" s="2">
+        <v>44911.83333333334</v>
+      </c>
+      <c r="K39" s="3">
+        <v>16.16666666666667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>4399</v>
+      </c>
+      <c r="D40">
+        <v>4602</v>
+      </c>
+      <c r="E40">
+        <v>16903.22898</v>
+      </c>
+      <c r="F40">
+        <v>22877.99</v>
+      </c>
+      <c r="G40">
+        <v>29873.80510000001</v>
+      </c>
+      <c r="H40">
+        <v>0.3534686199346513</v>
+      </c>
+      <c r="I40" s="2">
+        <v>44930.33333333334</v>
+      </c>
+      <c r="J40" s="2">
+        <v>44964.16666666666</v>
+      </c>
+      <c r="K40" s="3">
+        <v>33.83333333333334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>4609</v>
+      </c>
+      <c r="D41">
+        <v>4610</v>
+      </c>
+      <c r="E41">
+        <v>23279.69646</v>
+      </c>
+      <c r="F41">
+        <v>22973.06931348261</v>
+      </c>
+      <c r="G41">
+        <v>-1226.50858606954</v>
+      </c>
+      <c r="H41">
+        <v>-0.01317144091823719</v>
+      </c>
+      <c r="I41" s="2">
+        <v>44965.33333333334</v>
+      </c>
+      <c r="J41" s="2">
+        <v>44965.5</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>4655</v>
+      </c>
+      <c r="D42">
+        <v>4660</v>
+      </c>
+      <c r="E42">
+        <v>24371.51574</v>
+      </c>
+      <c r="F42">
+        <v>24059.94362551446</v>
+      </c>
+      <c r="G42">
+        <v>-1246.288457942137</v>
+      </c>
+      <c r="H42">
+        <v>-0.01278427315762565</v>
+      </c>
+      <c r="I42" s="2">
+        <v>44973</v>
+      </c>
+      <c r="J42" s="2">
+        <v>44973.83333333334</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>4811</v>
+      </c>
+      <c r="D43">
+        <v>5035</v>
+      </c>
+      <c r="E43">
+        <v>24160.49454</v>
+      </c>
+      <c r="F43">
+        <v>28869.66</v>
+      </c>
+      <c r="G43">
+        <v>18836.66184</v>
+      </c>
+      <c r="H43">
+        <v>0.1949117991853822</v>
+      </c>
+      <c r="I43" s="2">
+        <v>44999</v>
+      </c>
+      <c r="J43" s="2">
+        <v>45036.33333333334</v>
+      </c>
+      <c r="K43" s="3">
+        <v>37.33333333333334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>5080</v>
+      </c>
+      <c r="D44">
+        <v>5080</v>
+      </c>
+      <c r="E44">
+        <v>29733.32796</v>
+      </c>
+      <c r="F44">
+        <v>29277.93005902785</v>
+      </c>
+      <c r="G44">
+        <v>-1366.193702916433</v>
+      </c>
+      <c r="H44">
+        <v>-0.01531607567053328</v>
+      </c>
+      <c r="I44" s="2">
+        <v>45043.83333333334</v>
+      </c>
+      <c r="J44" s="2">
+        <v>45043.83333333334</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>5120</v>
+      </c>
+      <c r="D45">
+        <v>5120</v>
+      </c>
+      <c r="E45">
+        <v>29212.9593</v>
+      </c>
+      <c r="F45">
+        <v>28761.39453483155</v>
+      </c>
+      <c r="G45">
+        <v>-1354.694295505367</v>
+      </c>
+      <c r="H45">
+        <v>-0.01545768645111056</v>
+      </c>
+      <c r="I45" s="2">
+        <v>45050.5</v>
+      </c>
+      <c r="J45" s="2">
+        <v>45050.5</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>5266</v>
+      </c>
+      <c r="D46">
+        <v>5280</v>
+      </c>
+      <c r="E46">
+        <v>27581.04198</v>
+      </c>
+      <c r="F46">
+        <v>27168.9505384981</v>
+      </c>
+      <c r="G46">
+        <v>-1236.27432450571</v>
+      </c>
+      <c r="H46">
+        <v>-0.01494111215235183</v>
+      </c>
+      <c r="I46" s="2">
+        <v>45074.83333333334</v>
+      </c>
+      <c r="J46" s="2">
+        <v>45077.16666666666</v>
+      </c>
+      <c r="K46" s="3">
+        <v>2.333333333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>5297</v>
+      </c>
+      <c r="D47">
+        <v>5304</v>
+      </c>
+      <c r="E47">
+        <v>27297.07518</v>
+      </c>
+      <c r="F47">
+        <v>27061.37</v>
+      </c>
+      <c r="G47">
+        <v>-707.1155400000025</v>
+      </c>
+      <c r="H47">
+        <v>-0.00863481447905079</v>
+      </c>
+      <c r="I47" s="2">
+        <v>45080</v>
+      </c>
+      <c r="J47" s="2">
+        <v>45081.16666666666</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1.166666666666667</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>5305</v>
+      </c>
+      <c r="D48">
+        <v>5309</v>
+      </c>
+      <c r="E48">
+        <v>27204.76092</v>
+      </c>
+      <c r="F48">
+        <v>26801.84182688788</v>
+      </c>
+      <c r="G48">
+        <v>-1208.757279336369</v>
+      </c>
+      <c r="H48">
+        <v>-0.01481060959502534</v>
+      </c>
+      <c r="I48" s="2">
+        <v>45081.33333333334</v>
+      </c>
+      <c r="J48" s="2">
+        <v>45082</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>5387</v>
+      </c>
+      <c r="D49">
+        <v>5511</v>
+      </c>
+      <c r="E49">
+        <v>26570.02398</v>
+      </c>
+      <c r="F49">
+        <v>30208.01</v>
+      </c>
+      <c r="G49">
+        <v>10913.95805999999</v>
+      </c>
+      <c r="H49">
+        <v>0.1369206901257751</v>
+      </c>
+      <c r="I49" s="2">
+        <v>45095</v>
+      </c>
+      <c r="J49" s="2">
+        <v>45115.66666666666</v>
+      </c>
+      <c r="K49" s="3">
+        <v>20.66666666666667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>5526</v>
+      </c>
+      <c r="D50">
+        <v>5547</v>
+      </c>
+      <c r="E50">
+        <v>30536.94198</v>
+      </c>
+      <c r="F50">
+        <v>30128.43083648967</v>
+      </c>
+      <c r="G50">
+        <v>-1225.533430530995</v>
+      </c>
+      <c r="H50">
+        <v>-0.01337760486226436</v>
+      </c>
+      <c r="I50" s="2">
+        <v>45118.16666666666</v>
+      </c>
+      <c r="J50" s="2">
+        <v>45121.66666666666</v>
+      </c>
+      <c r="K50" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>5698</v>
+      </c>
+      <c r="D51">
+        <v>5703</v>
+      </c>
+      <c r="E51">
+        <v>29943.99846</v>
+      </c>
+      <c r="F51">
+        <v>29592.07044655856</v>
+      </c>
+      <c r="G51">
+        <v>-1055.784040324321</v>
+      </c>
+      <c r="H51">
+        <v>-0.01175287308111361</v>
+      </c>
+      <c r="I51" s="2">
+        <v>45146.83333333334</v>
+      </c>
+      <c r="J51" s="2">
+        <v>45147.66666666666</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>5826</v>
+      </c>
+      <c r="D52">
+        <v>5828</v>
+      </c>
+      <c r="E52">
+        <v>27445.92228</v>
+      </c>
+      <c r="F52">
+        <v>27114.49593777053</v>
+      </c>
+      <c r="G52">
+        <v>-994.2790266884149</v>
+      </c>
+      <c r="H52">
+        <v>-0.01207561323129536</v>
+      </c>
+      <c r="I52" s="2">
+        <v>45168.16666666666</v>
+      </c>
+      <c r="J52" s="2">
+        <v>45168.5</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>5915</v>
+      </c>
+      <c r="D53">
+        <v>5981</v>
+      </c>
+      <c r="E53">
+        <v>26274.444</v>
+      </c>
+      <c r="F53">
+        <v>26248.39</v>
+      </c>
+      <c r="G53">
+        <v>-78.16200000000026</v>
+      </c>
+      <c r="H53">
+        <v>-0.0009916099461514394</v>
+      </c>
+      <c r="I53" s="2">
+        <v>45183</v>
+      </c>
+      <c r="J53" s="2">
+        <v>45194</v>
+      </c>
+      <c r="K53" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>6004</v>
+      </c>
+      <c r="D54">
+        <v>6008</v>
+      </c>
+      <c r="E54">
+        <v>27154.2</v>
+      </c>
+      <c r="F54">
+        <v>26840.6451263385</v>
+      </c>
+      <c r="G54">
+        <v>-940.6646209845057</v>
+      </c>
+      <c r="H54">
+        <v>-0.01154719614871735</v>
+      </c>
+      <c r="I54" s="2">
+        <v>45197.83333333334</v>
+      </c>
+      <c r="J54" s="2">
+        <v>45198.5</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>6111</v>
+      </c>
+      <c r="D55">
+        <v>6284</v>
+      </c>
+      <c r="E55">
+        <v>28120.28832</v>
+      </c>
+      <c r="F55">
+        <v>36259.17</v>
+      </c>
+      <c r="G55">
+        <v>24416.64504</v>
+      </c>
+      <c r="H55">
+        <v>0.2894309470579426</v>
+      </c>
+      <c r="I55" s="2">
+        <v>45215.66666666666</v>
+      </c>
+      <c r="J55" s="2">
+        <v>45244.5</v>
+      </c>
+      <c r="K55" s="3">
+        <v>28.83333333333333</v>
       </c>
     </row>
   </sheetData>
